--- a/TFs.xlsx
+++ b/TFs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -145,16 +145,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">GAAGTT (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">GC</t>
+      <t xml:space="preserve">GAAGTT (GC</t>
     </r>
     <r>
       <rPr>
@@ -163,6 +154,7 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">CG</t>
     </r>
@@ -172,6 +164,7 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">GAAG, C</t>
     </r>
@@ -182,6 +175,7 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">CG</t>
     </r>
@@ -191,76 +185,114 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">GAA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">GAA)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">AGTCGGAAGTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGCACGTGCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HoxB13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTTTTATTGGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTTTTACGAGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pou6f1 (Hhex)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATAATGAGGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HoxC11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGGTCGTAAAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foxo3a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATGTAAACAAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATGCAAACAAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATGTAACCAAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klf3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GACCACGCCCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irf1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGAAAGCGAAAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creb1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">GGCTGACGTCA  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TGA</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">CG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">TC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">)</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">AGTCGGAAGTT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCGCACGTGCT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HoxB13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTTTTATTGGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTTTTACGAGG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pou6f1 (Hhex)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATAATGAGGT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HoxC11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGGTCGTAAAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foxo3a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGTAAACAAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGCAAACAAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATGTAACCAAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">klf3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GACCACGCCCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irf1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGAAAGCGAAAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creb1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GGCTGACGTCA</t>
   </si>
   <si>
     <t xml:space="preserve">P53</t>
@@ -354,12 +386,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -396,13 +434,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -417,6 +459,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,6 +480,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -436,11 +550,11 @@
   </sheetPr>
   <dimension ref="B5:L22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.63"/>
   </cols>
@@ -458,7 +572,7 @@
       <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -473,272 +587,272 @@
       <c r="J5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="2"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="2"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="2" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="2"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="2"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="2"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="2"/>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="4"/>
+      <c r="C14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="7"/>
       <c r="L14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="C15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="4"/>
+      <c r="C16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="7"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="2"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L19" s="2"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L20" s="2"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L21" s="2"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L22" s="2"/>
+      <c r="L22" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -758,11 +872,11 @@
   </sheetPr>
   <dimension ref="B3:E16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.91"/>
@@ -792,10 +906,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="0" t="s">
@@ -862,8 +976,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -871,7 +985,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="0" t="s">
@@ -879,7 +993,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="0" t="s">

--- a/TFs.xlsx
+++ b/TFs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t xml:space="preserve">TFs                                     </t>
   </si>
@@ -74,6 +74,9 @@
     <t xml:space="preserve">HoxC11                          </t>
   </si>
   <si>
+    <t xml:space="preserve">FoxA2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Foxo3a                         </t>
   </si>
   <si>
@@ -253,16 +256,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">GGCTGACGTCA  (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">TGA</t>
+      <t xml:space="preserve">GGCTGACGTCA  (TGA</t>
     </r>
     <r>
       <rPr>
@@ -271,6 +265,7 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">CG</t>
     </r>
@@ -280,18 +275,9 @@
         <color rgb="FF000000"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">TC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TC)</t>
     </r>
   </si>
   <si>
@@ -304,7 +290,60 @@
     <t xml:space="preserve">Egr1</t>
   </si>
   <si>
-    <t xml:space="preserve">AGCGTGGGCGT</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">AGCGTGGGCGT (</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TGGGCG)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(CG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">TCGGCG)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Stat1</t>
@@ -326,7 +365,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -372,19 +411,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -434,7 +460,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -451,6 +477,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -459,6 +489,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -467,7 +501,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -548,13 +594,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B5:L22"/>
+  <dimension ref="B5:L23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.63"/>
   </cols>
@@ -578,10 +624,10 @@
       <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -595,254 +641,268 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="C7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="C14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="2"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="C15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="9"/>
       <c r="L15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="7"/>
+      <c r="C16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="3"/>
+      <c r="C17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -853,6 +913,9 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="L22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L23" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -872,8 +935,8 @@
   </sheetPr>
   <dimension ref="B3:E16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -888,132 +951,135 @@
   <sheetData>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>31</v>
       </c>
+      <c r="C5" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="D5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8" t="s">
-        <v>49</v>
+      <c r="B12" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="8" t="s">
-        <v>51</v>
+      <c r="B13" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="8" t="s">
         <v>53</v>
       </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="C14" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/TFs.xlsx
+++ b/TFs.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="107">
   <si>
     <t xml:space="preserve">TFs                                     </t>
   </si>
@@ -357,6 +358,144 @@
   <si>
     <t xml:space="preserve">TAGCACGTGCT</t>
   </si>
+  <si>
+    <t xml:space="preserve">Binding site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CpG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-CpG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runx1/Runx3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCGCGGTT / TTGCGGTT / TCGTGGTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p2-3, p4-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GCCGGAAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p3-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HoxB13  v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTTTACGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p6-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HoxB13  v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCATAAAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pou6f1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCCATTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foxo3a/FoxA2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGCAAACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGCTTACA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCACGCCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAAGCGAAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p5-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creb1/Atf1 v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGACGTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p4-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creb1/Atf1 v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GACGCCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egr1 v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGTGGGCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egr1 v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGTCGGCG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stat1 v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTCCCGGAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stat1 v2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCCCGGAA / TCCCAGGAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACGTG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gzf1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TACGGTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sox2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACAATGG</t>
+  </si>
 </sst>
 </file>
 
@@ -365,7 +504,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -411,6 +550,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFBFBFBF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -426,12 +572,19 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -477,16 +630,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -501,19 +646,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -542,7 +695,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -596,16 +749,16 @@
   </sheetPr>
   <dimension ref="B5:L23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.66"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,10 +777,10 @@
       <c r="G5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -640,269 +793,267 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="5" t="s">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="8" t="s">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="C7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5" t="s">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5" t="s">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
       <c r="L9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="5" t="s">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="5" t="s">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5" t="s">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="5" t="s">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="5" t="s">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="8" t="s">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="9"/>
+      <c r="C15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="7"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="8" t="s">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="C16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="8" t="s">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="9"/>
+      <c r="C17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="7"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="5" t="s">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="5" t="s">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -935,26 +1086,26 @@
   </sheetPr>
   <dimension ref="B3:E16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="D5:D6 D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.16"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
         <v>27</v>
       </c>
@@ -968,11 +1119,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="12" t="s">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="0" t="s">
@@ -982,7 +1133,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>35</v>
       </c>
@@ -993,7 +1144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
         <v>38</v>
       </c>
@@ -1001,7 +1152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>40</v>
       </c>
@@ -1009,7 +1160,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
         <v>42</v>
       </c>
@@ -1023,7 +1174,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>46</v>
       </c>
@@ -1031,7 +1182,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>48</v>
       </c>
@@ -1039,34 +1190,34 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="12" t="s">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="12" t="s">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="12" t="s">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>57</v>
       </c>
@@ -1074,7 +1225,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>59</v>
       </c>
@@ -1091,4 +1242,284 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D5:D6 A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.3"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>